--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,17 +711,20 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E8" s="3">
         <v>134300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,17 +743,20 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E9" s="3">
         <v>66200</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,17 +775,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E10" s="3">
         <v>68100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,17 +885,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>66600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,17 +917,20 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>6900</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E17" s="3">
         <v>165600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,17 +992,20 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,17 +1040,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,13 +1070,16 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>27900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1065,17 +1102,20 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,25 +1134,28 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,17 +1166,20 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17600</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,17 +1422,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1617,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1181500</v>
+      </c>
+      <c r="E41" s="3">
         <v>519700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,17 +1679,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,17 +1711,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E44" s="3">
         <v>32300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,25 +1743,28 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1676,26 +1775,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1239100</v>
+      </c>
+      <c r="E46" s="3">
         <v>561000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,23 +1807,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>345100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>345000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,17 +1839,20 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>534100</v>
+      </c>
+      <c r="E48" s="3">
         <v>503000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,17 +1967,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,26 +2031,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1782500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1074300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>346300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>346900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,26 +2093,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E57" s="3">
         <v>16200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,26 +2123,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E58" s="3">
         <v>24700</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,22 +2155,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,26 +2187,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E60" s="3">
         <v>43100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,17 +2219,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E61" s="3">
         <v>46100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2108,22 +2251,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E62" s="3">
         <v>131300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>12100</v>
       </c>
       <c r="F62" s="3">
         <v>12100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>12100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2379,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>907400</v>
+      </c>
+      <c r="E66" s="3">
         <v>220400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2553,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2681,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>875200</v>
+      </c>
+      <c r="E76" s="3">
         <v>853900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>330700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>333800</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +2830,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3020,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3068,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,19 +3162,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E94" s="3">
         <v>322600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3336,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>671800</v>
+      </c>
+      <c r="E100" s="3">
         <v>175200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>346800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,25 +3400,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E102" s="3">
         <v>502000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,20 +715,23 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E8" s="3">
         <v>60000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>134300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,20 +750,23 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>66200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,20 +785,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E10" s="3">
         <v>42100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>68100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,20 +905,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>66600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,20 +940,23 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6900</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,28 +989,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E17" s="3">
         <v>38300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>165600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -995,20 +1022,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E18" s="3">
         <v>21700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,20 +1074,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,17 +1107,20 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E21" s="3">
         <v>27900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,20 +1142,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,28 +1177,31 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E23" s="3">
         <v>20600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1169,20 +1212,23 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17600</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,28 +1282,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E26" s="3">
         <v>16100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1265,28 +1317,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E27" s="3">
         <v>16100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,20 +1492,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,28 +1527,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>16100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,28 +1597,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>16100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1553,34 +1632,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,28 +1704,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1196900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1181500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>519700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,20 +1772,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
         <v>13900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,20 +1807,23 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E44" s="3">
         <v>35100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>32300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,28 +1842,31 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1778,29 +1877,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1246100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1239100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>561000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1821,15 +1926,15 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>345100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>345000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,20 +1947,23 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E48" s="3">
         <v>534100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>503000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,20 +2087,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,29 +2157,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1782500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1074300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>346300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>346900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,29 +2224,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E57" s="3">
         <v>27500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,29 +2257,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E58" s="3">
         <v>41800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,25 +2292,28 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2190,29 +2327,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E60" s="3">
         <v>72900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,20 +2362,23 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>673800</v>
+      </c>
+      <c r="E61" s="3">
         <v>691000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>46100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2254,25 +2397,28 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E62" s="3">
         <v>143400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>131300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>12100</v>
       </c>
       <c r="G62" s="3">
         <v>12100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>12100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,29 +2537,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>911300</v>
+      </c>
+      <c r="E66" s="3">
         <v>907400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,28 +2727,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,28 +2867,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>906600</v>
+      </c>
+      <c r="E76" s="3">
         <v>875200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>853900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>330700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>333800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2937,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,28 +2977,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>16100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,17 +3029,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,14 +3056,17 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,28 +3237,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E89" s="3">
         <v>9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,17 +3289,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,14 +3316,17 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,22 +3392,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>322600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,28 +3582,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>671800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>175200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>346800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,28 +3652,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E102" s="3">
         <v>662000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>502000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,23 +719,26 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E8" s="3">
         <v>73100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -753,23 +757,26 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E9" s="3">
         <v>18000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>66200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,23 +795,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E10" s="3">
         <v>55100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>68100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,23 +925,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>66600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,23 +963,26 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="3">
         <v>6700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1016,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E17" s="3">
         <v>40700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>165600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,23 +1052,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E18" s="3">
         <v>32400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,23 +1108,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,20 +1144,23 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E21" s="3">
         <v>42600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1154,14 +1194,14 @@
         <v>2600</v>
       </c>
       <c r="E22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,31 +1220,34 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E23" s="3">
         <v>33300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,23 +1258,26 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E24" s="3">
         <v>6200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17600</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1334,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E26" s="3">
         <v>27200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1372,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E27" s="3">
         <v>27200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,23 +1562,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,31 +1600,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E33" s="3">
         <v>27200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1676,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E35" s="3">
         <v>27200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,31 +1791,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1179400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1196900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1181500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>519700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,23 +1865,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E43" s="3">
         <v>8200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,23 +1903,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E44" s="3">
         <v>35500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>35100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>32300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,31 +1941,34 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1880,32 +1979,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1255500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1246100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1239100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>561000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1929,15 +2034,15 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>345100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>345000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,23 +2055,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>584100</v>
+      </c>
+      <c r="E48" s="3">
         <v>562000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>534100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>503000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2099,14 +2219,14 @@
         <v>9800</v>
       </c>
       <c r="E52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,32 +2283,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1849500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1818000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1782500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1074300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>346300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>346900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,32 +2355,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E57" s="3">
         <v>37700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,32 +2391,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E58" s="3">
         <v>46100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,28 +2429,31 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E59" s="3">
         <v>6500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2330,32 +2467,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E60" s="3">
         <v>90300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,23 +2505,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>674700</v>
+      </c>
+      <c r="E61" s="3">
         <v>673800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>691000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>46100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2400,28 +2543,31 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E62" s="3">
         <v>147200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>143400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>131300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12100</v>
       </c>
       <c r="H62" s="3">
         <v>12100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>12100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,32 +2695,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>895300</v>
+      </c>
+      <c r="E66" s="3">
         <v>911300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>907400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>220400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,31 +2901,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,31 +3053,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>954200</v>
+      </c>
+      <c r="E76" s="3">
         <v>906600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>875200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>853900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>330700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>333800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,31 +3172,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E81" s="3">
         <v>27200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,20 +3228,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,14 +3258,17 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,31 +3454,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E89" s="3">
         <v>38600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,20 +3510,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3319,14 +3540,17 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,25 +3622,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>322600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,31 +3828,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>671800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>175200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>346800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3620,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,31 +3904,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E102" s="3">
         <v>11900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>662000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>502000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,26 +722,29 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E8" s="3">
         <v>99800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>60000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,26 +763,29 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E9" s="3">
         <v>21900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>66200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,26 +804,29 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E10" s="3">
         <v>77900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>68100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,17 +956,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>66600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,26 +985,29 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="3">
         <v>7000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1026,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,34 +1042,35 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E17" s="3">
         <v>45700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>165600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1055,26 +1081,29 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E18" s="3">
         <v>54100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,17 +1151,17 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,23 +1180,26 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E21" s="3">
         <v>61100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>42600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,26 +1221,29 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
         <v>2600</v>
       </c>
       <c r="F22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,34 +1262,37 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E23" s="3">
         <v>51600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1261,26 +1303,29 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-17600</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,34 +1385,37 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E26" s="3">
         <v>42800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1375,34 +1426,37 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E27" s="3">
         <v>42800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,17 +1643,17 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,34 +1672,37 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E33" s="3">
         <v>42800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,34 +1754,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E35" s="3">
         <v>42800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1717,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,34 +1877,35 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1179300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1179400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1196900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1181500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>519700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1830,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,26 +1957,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E43" s="3">
         <v>37100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,26 +1998,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E44" s="3">
         <v>34100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>35500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>32300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,34 +2039,37 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>500</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1982,35 +2080,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1276800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1255500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1246100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1239100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>561000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2037,15 +2141,15 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>345100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>345000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,26 +2162,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>611700</v>
+      </c>
+      <c r="E48" s="3">
         <v>584100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>562000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>534100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>503000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,26 +2326,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9800</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>9800</v>
       </c>
       <c r="F52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,35 +2408,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1889700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1849500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1818000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1782500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1074300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>346300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>346900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,35 +2485,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E57" s="3">
         <v>27800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,35 +2524,38 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E58" s="3">
         <v>31200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,31 +2565,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2470,35 +2606,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E60" s="3">
         <v>70800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,26 +2647,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>675500</v>
+      </c>
+      <c r="E61" s="3">
         <v>674700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>673800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>691000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>46100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2546,31 +2688,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E62" s="3">
         <v>149800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>147200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>143400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>131300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>12100</v>
       </c>
       <c r="I62" s="3">
         <v>12100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>12100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,35 +2852,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>880900</v>
+      </c>
+      <c r="E66" s="3">
         <v>895300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>911300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>907400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>220400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,34 +3074,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E72" s="3">
         <v>23400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,34 +3238,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1008700</v>
+      </c>
+      <c r="E76" s="3">
         <v>954200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>906600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>875200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>853900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>330700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>333800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,34 +3366,37 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E81" s="3">
         <v>42800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,23 +3426,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3261,14 +3459,17 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,34 +3670,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E89" s="3">
         <v>22500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,23 +3730,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3543,14 +3763,17 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,28 +3851,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>322600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3663,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,34 +4073,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>671800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>175200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>346800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,34 +4155,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>662000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>502000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3943,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,29 +726,32 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E8" s="3">
         <v>99100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>60000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>134300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,29 +770,32 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E9" s="3">
         <v>18500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>66200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,29 +814,32 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E10" s="3">
         <v>80600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>77900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>68100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,29 +964,32 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>66600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,29 +1008,32 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E15" s="3">
         <v>4600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6900</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,37 +1069,38 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E17" s="3">
         <v>42000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>165600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1084,29 +1111,32 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E18" s="3">
         <v>57100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,29 +1175,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>3500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,26 +1217,29 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E21" s="3">
         <v>61800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,29 +1261,32 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2600</v>
       </c>
       <c r="F22" s="3">
         <v>2600</v>
       </c>
       <c r="G22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,37 +1305,40 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E23" s="3">
         <v>54700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1306,29 +1349,32 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E24" s="3">
         <v>5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17600</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,37 +1437,40 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E26" s="3">
         <v>49000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1429,37 +1481,40 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E27" s="3">
         <v>49000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,29 +1701,32 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,37 +1745,40 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E33" s="3">
         <v>49000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,37 +1833,40 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E35" s="3">
         <v>49000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,37 +1964,38 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1233300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1179300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1179400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1196900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1181500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>519700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E43" s="3">
         <v>51000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,29 +2094,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E44" s="3">
         <v>38700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>34100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>32300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,37 +2138,40 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>500</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2083,38 +2182,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1316500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1276800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1255500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1246100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1239100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>561000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2144,15 +2249,15 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>345100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>345000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>668500</v>
+      </c>
+      <c r="E48" s="3">
         <v>611700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>584100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>562000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>534100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>503000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,29 +2446,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>9800</v>
       </c>
       <c r="F52" s="3">
         <v>9800</v>
       </c>
       <c r="G52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H52" s="3">
         <v>9300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,38 +2534,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1987200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1889700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1849500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1818000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1782500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1074300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>346300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>346900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,38 +2616,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E57" s="3">
         <v>35700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,38 +2658,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>16300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>31200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,34 +2702,37 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>100</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2609,38 +2746,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E60" s="3">
         <v>59500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>72900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,29 +2790,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>675800</v>
+      </c>
+      <c r="E61" s="3">
         <v>675500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>674700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>673800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>691000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>46100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2691,34 +2834,37 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E62" s="3">
         <v>145900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>149800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>147200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>143400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>131300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>12100</v>
       </c>
       <c r="J62" s="3">
         <v>12100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>12100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,38 +3010,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>896800</v>
+      </c>
+      <c r="E66" s="3">
         <v>880900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>895300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>911300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>907400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>220400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,37 +3248,40 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E72" s="3">
         <v>72400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,37 +3424,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1090400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1008700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>954200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>906600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>875200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>853900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>330700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>333800</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,37 +3561,40 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E81" s="3">
         <v>49000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,26 +3625,27 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3462,14 +3661,17 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,37 +3887,40 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E89" s="3">
         <v>31500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,26 +3951,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3766,14 +3987,17 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,31 +4081,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>322600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,37 +4319,40 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>671800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>175200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>346800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,37 +4407,40 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>662000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>502000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,32 +730,35 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E8" s="3">
         <v>166300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>99800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>60000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>134300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,32 +777,35 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E9" s="3">
         <v>23200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>66200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,32 +824,35 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E10" s="3">
         <v>143100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>80600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>77900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>68100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,32 +984,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>66600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,32 +1031,35 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E15" s="3">
         <v>5300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,40 +1096,41 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E17" s="3">
         <v>51200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>165600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1114,32 +1141,35 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E18" s="3">
         <v>115100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>57100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,32 +1209,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,29 +1254,32 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E21" s="3">
         <v>120500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,32 +1301,35 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2600</v>
       </c>
       <c r="G22" s="3">
         <v>2600</v>
       </c>
       <c r="H22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,40 +1348,43 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E23" s="3">
         <v>113300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>54700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1352,32 +1395,35 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E24" s="3">
         <v>27800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17600</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,40 +1489,43 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E26" s="3">
         <v>85600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1484,40 +1536,43 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E27" s="3">
         <v>85600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,32 +1771,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,40 +1818,43 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E33" s="3">
         <v>85600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>49000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,40 +1912,43 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E35" s="3">
         <v>85600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>49000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1880,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,40 +2051,41 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>664500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1233300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1179300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1179400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1196900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1181500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>519700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2009,31 +2096,34 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>599700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2053,32 +2143,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E43" s="3">
         <v>37100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,32 +2190,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E44" s="3">
         <v>39600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>38700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>34100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>32300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,40 +2237,43 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>500</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2185,41 +2284,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1348900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1316500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1276800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1255500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1246100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1239100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>561000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2252,15 +2357,15 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>345100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>345000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,32 +2378,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>749800</v>
+      </c>
+      <c r="E48" s="3">
         <v>668500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>611700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>584100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>562000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>534100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>503000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,32 +2566,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>9800</v>
       </c>
       <c r="G52" s="3">
         <v>9800</v>
       </c>
       <c r="H52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I52" s="3">
         <v>9300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,41 +2660,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2101200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1987200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1889700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1849500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1818000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1782500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1074300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>346300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>346900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,41 +2747,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E57" s="3">
         <v>41700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2670,32 +2804,32 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>16300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>31200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,37 +2839,40 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>9900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2749,41 +2886,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E60" s="3">
         <v>51600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,32 +2933,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>676700</v>
+      </c>
+      <c r="E61" s="3">
         <v>675800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>675500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>674700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>673800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>691000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>46100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2837,37 +2980,40 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E62" s="3">
         <v>169500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>145900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>149800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>147200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>143400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>131300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>12100</v>
       </c>
       <c r="K62" s="3">
         <v>12100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>12100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,41 +3168,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>930500</v>
+      </c>
+      <c r="E66" s="3">
         <v>896800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>880900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>895300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>911300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>907400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>220400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,40 +3422,43 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E72" s="3">
         <v>158000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>72400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-46500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,40 +3610,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1170700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1090400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1008700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>954200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>906600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>875200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>853900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>330700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>333800</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,40 +3756,43 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E81" s="3">
         <v>85600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>49000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,29 +3824,30 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,14 +3863,17 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,40 +4104,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E89" s="3">
         <v>121000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,29 +4172,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3990,14 +4211,17 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,34 +4311,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-666800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-39100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>322600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,40 +4565,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>671800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>175200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>346800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,40 +4659,43 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-568800</v>
+      </c>
+      <c r="E102" s="3">
         <v>53300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>662000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>502000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,35 +734,38 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E8" s="3">
         <v>143600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>166300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>99100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>99800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>60000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,35 +784,38 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E9" s="3">
         <v>22100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>66200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,35 +834,38 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E10" s="3">
         <v>121500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>143100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>80600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>77900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>68100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,35 +1004,38 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>66600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,35 +1054,38 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
         <v>5400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,43 +1123,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E17" s="3">
         <v>47800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>165600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1144,35 +1171,38 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E18" s="3">
         <v>95800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>115100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>57100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>54100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,35 +1243,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>3500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,32 +1291,35 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E21" s="3">
         <v>103400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>120500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,35 +1341,38 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2600</v>
       </c>
       <c r="H22" s="3">
         <v>2600</v>
       </c>
       <c r="I22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,43 +1391,46 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E23" s="3">
         <v>96600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>113300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>54700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1398,35 +1441,38 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E24" s="3">
         <v>23400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-17600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,43 +1541,46 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E26" s="3">
         <v>73300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>85600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1539,43 +1591,46 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E27" s="3">
         <v>73300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>85600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,35 +1841,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,43 +1891,46 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E33" s="3">
         <v>73300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>85600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>49000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,43 +1991,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E35" s="3">
         <v>73300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>85600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>49000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,43 +2138,44 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E41" s="3">
         <v>664500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1233300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1179300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1179400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1196900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1181500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>519700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2099,17 +2186,20 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>836300</v>
+      </c>
+      <c r="E42" s="3">
         <v>599700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2215,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2146,35 +2236,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E43" s="3">
         <v>37000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,35 +2286,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E44" s="3">
         <v>42200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>38700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>34100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>32300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,43 +2336,46 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>500</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2287,44 +2386,47 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1356800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1348900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1316500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1276800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1255500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1246100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1239100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>561000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,41 +2436,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>345100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>345000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,35 +2486,38 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E48" s="3">
         <v>749800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>668500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>611700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>584100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>562000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>534100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>503000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,35 +2686,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9800</v>
       </c>
       <c r="H52" s="3">
         <v>9800</v>
       </c>
       <c r="I52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J52" s="3">
         <v>9300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,44 +2786,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2189200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2101200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1987200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1889700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1849500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1818000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1782500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1074300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>346300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>346900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,44 +2878,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E57" s="3">
         <v>62100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2807,32 +2941,32 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>16300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>31200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>46100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,40 +2976,43 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>100</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2889,44 +3026,47 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E60" s="3">
         <v>66100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>72900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,35 +3076,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>677600</v>
+      </c>
+      <c r="E61" s="3">
         <v>676700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>675800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>675500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>674700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>673800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>691000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>46100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2983,40 +3126,43 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>194500</v>
+      </c>
+      <c r="E62" s="3">
         <v>187700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>169500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>145900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>149800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>147200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>143400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>131300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>12100</v>
       </c>
       <c r="L62" s="3">
         <v>12100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>12100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,44 +3326,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>946900</v>
+      </c>
+      <c r="E66" s="3">
         <v>930500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>896800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>880900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>895300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>911300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>907400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>220400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,43 +3596,46 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>294400</v>
+      </c>
+      <c r="E72" s="3">
         <v>231200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>158000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>72400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-46500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,43 +3796,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1242300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1170700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1090400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1008700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>954200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>906600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>875200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>853900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>330700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>333800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,43 +3951,46 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E81" s="3">
         <v>73300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>85600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>49000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,32 +4023,33 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>5400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,14 +4065,17 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,43 +4321,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E89" s="3">
         <v>98900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>121000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,32 +4393,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4214,14 +4435,17 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,37 +4541,40 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-325100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-666800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>322600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,43 +4811,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>671800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>175200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>346800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,43 +4911,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-231200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-568800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>53300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>662000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>502000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,38 +737,41 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E8" s="3">
         <v>124400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>143600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>166300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>99100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>99800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>134300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,38 +790,41 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E9" s="3">
         <v>22400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,38 +843,41 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E10" s="3">
         <v>102000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>121500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>143100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>80600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>77900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>68100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,27 +1037,27 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>66600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,38 +1076,41 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1129,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,46 +1149,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E17" s="3">
         <v>45300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>42000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>165600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1174,38 +1200,41 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E18" s="3">
         <v>79100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>115100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>57100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>54100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,38 +1276,39 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,35 +1327,38 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E21" s="3">
         <v>87400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>103400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>120500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>42600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,38 +1380,41 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2600</v>
       </c>
       <c r="I22" s="3">
         <v>2600</v>
       </c>
       <c r="J22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1394,46 +1433,49 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E23" s="3">
         <v>84100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>96600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>113300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1444,38 +1486,41 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E24" s="3">
         <v>20900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1494,8 +1539,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,46 +1592,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E26" s="3">
         <v>63200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>85600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>49000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1594,46 +1645,49 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E27" s="3">
         <v>63200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>85600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>49000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,38 +1910,41 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,46 +1963,49 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E33" s="3">
         <v>63200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>85600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,46 +2069,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E35" s="3">
         <v>63200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>85600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2044,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,46 +2224,47 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E41" s="3">
         <v>428000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>664500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1233300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1179300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1179400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1196900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1181500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>519700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2189,20 +2275,23 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="E42" s="3">
         <v>836300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>599700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2218,8 +2307,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2239,38 +2328,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E43" s="3">
         <v>19900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2381,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E44" s="3">
         <v>61600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>38700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>34100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>32300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,46 +2434,49 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>500</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2389,47 +2487,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1293800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1356800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1348900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1316500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1276800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1255500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1246100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1239100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>561000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2465,18 +2569,18 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>345100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>345000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,38 +2593,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>935700</v>
+      </c>
+      <c r="E48" s="3">
         <v>830000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>749800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>668500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>611700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>584100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>562000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>534100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>503000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2805,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9800</v>
       </c>
       <c r="I52" s="3">
         <v>9800</v>
       </c>
       <c r="J52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K52" s="3">
         <v>9300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,47 +2911,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2237800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2189200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2101200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1987200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1889700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1849500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1818000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1782500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1074300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>346300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>346900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,47 +3008,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E57" s="3">
         <v>70200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2944,32 +3077,32 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>16300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>31200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>46100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,43 +3112,46 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>100</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3029,47 +3165,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E60" s="3">
         <v>74700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>72900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,38 +3218,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>678400</v>
+      </c>
+      <c r="E61" s="3">
         <v>677600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>676700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>675800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>675500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>674700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>673800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>691000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3129,43 +3271,46 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E62" s="3">
         <v>194500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>187700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>169500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>145900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>149800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>147200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>143400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>12100</v>
       </c>
       <c r="M62" s="3">
         <v>12100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>12100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3179,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,47 +3483,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>925200</v>
+      </c>
+      <c r="E66" s="3">
         <v>946900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>930500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>896800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>880900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>895300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>911300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>907400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>220400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,46 +3769,49 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>361400</v>
+      </c>
+      <c r="E72" s="3">
         <v>294400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>231200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>158000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,46 +3981,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1312600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1242300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1170700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1090400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1008700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>954200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>906600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>875200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>853900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>330700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>333800</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3849,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,46 +4145,49 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E81" s="3">
         <v>63200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>85600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,35 +4221,36 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4068,14 +4266,17 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,46 +4537,49 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E89" s="3">
         <v>94600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>98900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>121000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4374,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,35 +4613,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-91700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4438,14 +4658,17 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,40 +4770,43 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-315200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-325100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-666800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>322600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,46 +5056,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>671800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>175200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>346800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,46 +5162,49 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-290900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-231200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-568800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>53300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>662000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>502000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -4962,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,41 +741,44 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E8" s="3">
         <v>93200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>124400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>143600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>166300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>99100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>99800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>134300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,41 +797,44 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E9" s="3">
         <v>24500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,41 +853,44 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E10" s="3">
         <v>68700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>102000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>121500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>143100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>80600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>77900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>68100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,13 +1043,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1040,27 +1060,27 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>66600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1079,41 +1099,44 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E15" s="3">
         <v>5600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,49 +1176,50 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E17" s="3">
         <v>55800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>42000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>165600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1203,41 +1230,44 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E18" s="3">
         <v>37400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>79100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>115100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>57100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>54100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-31300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,41 +1310,42 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,38 +1364,41 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E21" s="3">
         <v>54000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>87400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>103400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>120500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>42600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,41 +1420,44 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2600</v>
       </c>
       <c r="J22" s="3">
         <v>2600</v>
       </c>
       <c r="K22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1436,49 +1476,52 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E23" s="3">
         <v>47100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>84100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>96600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>113300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1489,41 +1532,44 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,49 +1644,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E26" s="3">
         <v>67000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>63200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>73300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>85600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>49000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1648,49 +1700,52 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E27" s="3">
         <v>67000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>63200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>85600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,41 +1980,44 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,49 +2036,52 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E33" s="3">
         <v>67000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>63200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>85600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,49 +2148,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E35" s="3">
         <v>67000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>63200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>85600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,49 +2311,50 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>651200</v>
+      </c>
+      <c r="E41" s="3">
         <v>136600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>428000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>664500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1233300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1179300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1179400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1196900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1181500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>519700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2278,23 +2365,26 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E42" s="3">
         <v>1045700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>836300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>599700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,8 +2400,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2331,41 +2421,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E43" s="3">
         <v>35100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,41 +2477,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E44" s="3">
         <v>57600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>38700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>34100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>32300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,49 +2533,52 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E45" s="3">
         <v>18900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>500</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2490,50 +2589,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1267400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1293800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1356800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1348900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1316500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1276800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1255500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1246100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1239100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>561000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2572,18 +2677,18 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>345100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>345000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,41 +2701,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1002200</v>
+      </c>
+      <c r="E48" s="3">
         <v>935700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>830000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>749800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>668500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>611700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>584100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>562000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>534100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>503000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +2925,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>8200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9800</v>
       </c>
       <c r="J52" s="3">
         <v>9800</v>
       </c>
       <c r="K52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L52" s="3">
         <v>9300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,50 +3037,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2281100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2237800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2189200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2101200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1987200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1889700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1849500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1818000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1782500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1074300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>346300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>346900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,50 +3139,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E57" s="3">
         <v>72300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>70200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,13 +3193,16 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3080,32 +3214,32 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>16300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>31200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>46100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,46 +3249,49 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E59" s="3">
         <v>25200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>100</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3168,50 +3305,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E60" s="3">
         <v>97500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,41 +3361,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>679300</v>
+      </c>
+      <c r="E61" s="3">
         <v>678400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>677600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>676700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>675800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>675500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>674700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>673800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>691000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3274,46 +3417,49 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E62" s="3">
         <v>149200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>194500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>187700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>169500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>145900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>149800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>147200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>143400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>131300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>12100</v>
       </c>
       <c r="N62" s="3">
         <v>12100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>12100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,50 +3641,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>929300</v>
+      </c>
+      <c r="E66" s="3">
         <v>925200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>946900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>930500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>896800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>880900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>895300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>911300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>907400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,49 +3943,52 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>398900</v>
+      </c>
+      <c r="E72" s="3">
         <v>361400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>294400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>231200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>158000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,49 +4167,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1351800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1312600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1242300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1170700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1090400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1008700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>954200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>906600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>875200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>853900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>330700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>333800</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,49 +4340,52 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E81" s="3">
         <v>67000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>63200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>85600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,38 +4420,39 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4269,14 +4468,17 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,49 +4754,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E89" s="3">
         <v>29100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>94600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>98900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>121000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,38 +4834,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-112300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-91700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4661,14 +4882,17 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,43 +5000,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>462200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-315200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-325100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-666800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-49800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>322600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,49 +5302,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>671800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>175200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>346800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,49 +5414,52 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>510900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-290900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-231200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-568800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>662000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>502000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,44 +745,47 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E8" s="3">
         <v>95700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>93200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>124400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>143600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>166300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>99100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>99800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>60000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,44 +804,47 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E9" s="3">
         <v>24200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>66200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,44 +863,47 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E10" s="3">
         <v>71500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>68700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>102000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>121500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>143100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>80600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>77900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>68100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,16 +1063,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1063,27 +1083,27 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>66600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,44 +1122,47 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E15" s="3">
         <v>8100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,52 +1203,53 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E17" s="3">
         <v>62700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>51200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>165600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1233,44 +1260,47 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>33000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>79100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>115100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>57100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>54100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-31300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,44 +1344,45 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E20" s="3">
         <v>13700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,41 +1401,44 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E21" s="3">
         <v>54800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>87400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>103400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>120500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>61100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1432,35 +1472,35 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2600</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
       </c>
       <c r="L22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,52 +1519,55 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>45300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>47100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>84100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>96600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>113300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>54700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1535,44 +1578,47 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-19900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,52 +1696,55 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>37400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>73300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>85600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>49000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1703,52 +1755,55 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>37400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>67000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>63200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>85600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,44 +2050,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,52 +2109,55 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>37400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>63200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>73300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>85600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,52 +2227,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>37400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>63200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>85600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,52 +2398,53 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>927200</v>
+      </c>
+      <c r="E41" s="3">
         <v>651200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>428000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>664500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1233300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1179300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1179400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1196900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1181500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>519700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2368,26 +2455,29 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200800</v>
+      </c>
+      <c r="E42" s="3">
         <v>517800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1045700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>836300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>599700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2403,8 +2493,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2424,44 +2514,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E43" s="3">
         <v>23000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,44 +2573,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E44" s="3">
         <v>61800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>57600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>38700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>34100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>32300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,52 +2632,55 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
         <v>13600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>500</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2592,53 +2691,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1223900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1267400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1293800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1356800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1348900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1316500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1276800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1255500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1246100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1239100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>561000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2680,18 +2785,18 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>345100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>345000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,44 +2809,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1055400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1002200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>935700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>830000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>749800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>668500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>611700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>584100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>562000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>534100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>503000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,44 +3045,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
         <v>11500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>9800</v>
       </c>
       <c r="K52" s="3">
         <v>9800</v>
       </c>
       <c r="L52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M52" s="3">
         <v>9300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,53 +3163,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2289400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2281100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2237800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2189200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2101200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1987200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1889700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1849500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1818000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1782500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1074300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>346300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>346900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,53 +3270,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E57" s="3">
         <v>68600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>70200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,16 +3327,19 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3217,32 +3351,32 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>16300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>46100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,49 +3386,52 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25300</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F59" s="3">
         <v>25200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3308,53 +3445,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E60" s="3">
         <v>93900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>97500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>74700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,44 +3504,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>679300</v>
+        <v>684100</v>
       </c>
       <c r="E61" s="3">
+        <v>683500</v>
+      </c>
+      <c r="F61" s="3">
         <v>678400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>677600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>676700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>675800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>675500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>674700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>673800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>691000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3420,49 +3563,52 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>156100</v>
+        <v>164600</v>
       </c>
       <c r="E62" s="3">
+        <v>151900</v>
+      </c>
+      <c r="F62" s="3">
         <v>149200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>194500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>187700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>169500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>145900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>149800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>147200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>143400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>131300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>12100</v>
       </c>
       <c r="O62" s="3">
         <v>12100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>12100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,53 +3799,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>924500</v>
+      </c>
+      <c r="E66" s="3">
         <v>929300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>925200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>946900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>930500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>896800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>880900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>895300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>911300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>907400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>220400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,52 +4117,55 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>406300</v>
+      </c>
+      <c r="E72" s="3">
         <v>398900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>361400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>294400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>231200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>158000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>72400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,52 +4353,55 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1364900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1351800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1312600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1242300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1170700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1090400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1008700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>954200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>906600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>875200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>853900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>330700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>333800</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,52 +4535,55 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>37400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>63200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>73300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>85600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,41 +4619,42 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4471,14 +4670,17 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,52 +4971,55 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>55500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>94600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>98900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>121000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,41 +5055,42 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-112300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-91700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4885,14 +5106,17 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,46 +5230,49 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E94" s="3">
         <v>462200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-315200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-325100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-666800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-49800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>322600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,52 +5548,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>671800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>175200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>346800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5361,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,52 +5666,55 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E102" s="3">
         <v>510900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-290900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-231200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-568800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>53300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>662000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>502000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
   <si>
     <t>MP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,47 +749,50 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E8" s="3">
         <v>64000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>95700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>124400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>143600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>166300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>99100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>60000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,47 +811,50 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E9" s="3">
         <v>22700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>66200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,47 +873,50 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E10" s="3">
         <v>41300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>68700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>121500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>143100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>80600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>77900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>68100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,8 +1097,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1086,27 +1106,27 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>66600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,47 +1145,50 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E15" s="3">
         <v>12200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,55 +1230,56 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E17" s="3">
         <v>63500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>165600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1263,47 +1290,50 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>37400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>57100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>54100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,47 +1378,48 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E20" s="3">
         <v>13800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,44 +1438,47 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E21" s="3">
         <v>26500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>54000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>87400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>103400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>120500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>61800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,35 +1515,35 @@
         <v>1400</v>
       </c>
       <c r="F22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2600</v>
       </c>
       <c r="L22" s="3">
         <v>2600</v>
       </c>
       <c r="M22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1522,55 +1562,58 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>47100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>84100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>96600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>113300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>54700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1581,47 +1624,50 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-19900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-17600</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,55 +1748,58 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>63200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>73300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>85600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>49000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1758,55 +1810,58 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>67000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>63200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>73300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>85600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,47 +2120,50 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,55 +2182,58 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>63200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>73300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>85600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,55 +2306,58 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>63200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>73300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>85600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,55 +2485,56 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>547700</v>
+      </c>
+      <c r="E41" s="3">
         <v>927200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>651200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>428000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>664500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1233300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1179300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1179400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1196900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1181500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>519700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2458,29 +2545,32 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E42" s="3">
         <v>200800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>517800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1045700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>836300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>599700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2586,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2517,47 +2607,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E43" s="3">
         <v>15200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>51000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,47 +2669,50 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E44" s="3">
         <v>67800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>57600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>38700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>32300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,55 +2731,58 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E45" s="3">
         <v>12800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>500</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2694,56 +2793,59 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1188300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1223900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1267400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1293800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1356800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1348900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1316500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1276800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1255500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1246100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1239100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>561000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2788,18 +2893,18 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>345100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>345000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,47 +2917,50 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1108700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1055400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1002200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>935700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>830000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>749800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>668500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>611700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>584100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>562000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>534100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>503000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,31 +2979,34 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>9200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,47 +3165,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9800</v>
       </c>
       <c r="L52" s="3">
         <v>9800</v>
       </c>
       <c r="M52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N52" s="3">
         <v>9300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,56 +3289,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2322200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2289400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2281100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2237800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2189200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2101200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1987200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1889700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1849500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1818000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1782500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1074300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>346300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>346900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,56 +3401,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E57" s="3">
         <v>71700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>70200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,20 +3461,23 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3354,32 +3488,32 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>16300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>46100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,52 +3523,55 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>100</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3448,56 +3585,59 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E60" s="3">
         <v>75800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>97500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>74700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>72900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,47 +3647,50 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>684700</v>
+      </c>
+      <c r="E61" s="3">
         <v>684100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>683500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>678400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>677600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>676700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>675800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>675500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>674700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>673800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>691000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3566,52 +3709,55 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E62" s="3">
         <v>164600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>151900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>149200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>194500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>187700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>169500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>145900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>149800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>147200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>143400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>131300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>12100</v>
       </c>
       <c r="P62" s="3">
         <v>12100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>12100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,56 +3957,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>946100</v>
+      </c>
+      <c r="E66" s="3">
         <v>924500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>929300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>925200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>946900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>930500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>896800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>880900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>895300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>911300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>907400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>220400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,55 +4291,58 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E72" s="3">
         <v>406300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>398900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>361400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>294400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>231200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>158000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-46500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,55 +4539,58 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1376100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1364900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1351800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1312600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1242300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1170700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1090400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1008700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>954200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>906600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>875200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>853900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>330700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>333800</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,55 +4730,58 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>63200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>73300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>85600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,44 +4818,45 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E83" s="3">
         <v>12200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4673,14 +4872,17 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,55 +5188,58 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>94600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>98900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>121000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,44 +5276,45 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-112300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-91700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5109,14 +5330,17 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,49 +5460,52 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-390300</v>
+      </c>
+      <c r="E94" s="3">
         <v>265900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>462200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-315200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-325100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-666800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>322600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,55 +5794,58 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>671800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>175200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>346800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,55 +5918,58 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-380200</v>
+      </c>
+      <c r="E102" s="3">
         <v>275100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>510900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-290900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-231200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-568800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>53300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>662000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>502000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
